--- a/cartoes.xlsx
+++ b/cartoes.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\curso_programacao\projetos\integracao_anki\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443D0F7-F0A1-4D65-A45A-00708F992B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Frente</t>
-  </si>
-  <si>
-    <t>Verso</t>
-  </si>
-  <si>
-    <t>The photographer was busy snapping our picture at the gala, capturing the moment we toasted to a hard-won victory.</t>
-  </si>
-  <si>
-    <t>Her speech masterfully conveyed a sense of urgency, rallying the crowd to pitch in and support the cause.</t>
-  </si>
-  <si>
-    <t>The cat was purring contentedly on the windowsill, basking in the sunlight while the household  buzzed with activity.</t>
-  </si>
-  <si>
-    <t>O fotógrafo estava ocupado tirando nossa foto no gala, capturando o momento em que brindamos a uma vitória arduamente conquistada.</t>
-  </si>
-  <si>
-    <t>Seu discurso transmitiu com maestria um senso de urgência, mobilizando a multidão a contribuir e apoiar a causa.</t>
-  </si>
-  <si>
-    <t>O gato estava ronronando contente no parapeito da janela, aproveitando o sol enquanto a casa fervilhava de atividade.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,49 +420,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="121.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Frente</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Verso</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cartoes.xlsx
+++ b/cartoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,6 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cartoes.xlsx
+++ b/cartoes.xlsx
@@ -1,37 +1,473 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\curso_programacao\projetos\integracao_anki\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094519A4-5507-4E74-8A50-E428FD16EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1680" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Frente</t>
+  </si>
+  <si>
+    <t>Verso</t>
+  </si>
+  <si>
+    <t>The advertisement was misleading, giving customers the wrong impression about the product’s capabilities.</t>
+  </si>
+  <si>
+    <t>After several sleepless nights, she felt utterly listless and struggled to concentrate on her work.</t>
+  </si>
+  <si>
+    <t>The festival organizers decided to string up the colorful lanterns in a row across the main square.</t>
+  </si>
+  <si>
+    <t>He decided to ditch the outdated procedures and implement a more efficient workflow.</t>
+  </si>
+  <si>
+    <t>After years of chasing empty ambitions, she finally decided to ditch her old lifestyle and pursue what truly fulfilled her.</t>
+  </si>
+  <si>
+    <t>He decided to ditch his old shoes.</t>
+  </si>
+  <si>
+    <t>Dealing with multiple vendors at once can be a real hassle, requiring careful coordination and follow-up.</t>
+  </si>
+  <si>
+    <t>The IT team managed to spin up a new virtual server in under an hour to handle the unexpected surge in traffic.</t>
+  </si>
+  <si>
+    <t>We need to spin up a new server for the project.</t>
+  </si>
+  <si>
+    <t>He decided to postpone the meeting, i.e., he wanted more time to gather all necessary data.</t>
+  </si>
+  <si>
+    <t>Several programming languages, e.g., Python, Java, and C++, are commonly used in software development.</t>
+  </si>
+  <si>
+    <t>The band’s merchandise, including T-shirts and posters, sold out within hours after the concert.</t>
+  </si>
+  <si>
+    <t>The technician carefully adjusted the soundboard to ensure each instrument was perfectly balanced.</t>
+  </si>
+  <si>
+    <t>The DJ used strobe lights to create a dynamic atmosphere, enhancing the energy on the dance floor.</t>
+  </si>
+  <si>
+    <t>The audience erupted in applause, demanding an encore after the singer’s breathtaking performance.</t>
+  </si>
+  <si>
+    <r>
+      <t>O anúncio era enganoso, dando aos clientes uma impressão equivocada sobre as capacidades do produto.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Misleading – enganoso, errôneo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Após várias noites sem dormir, ela se sentia totalmente apática e teve dificuldade para se concentrar no trabalho.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listless – apático, sem energia)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Os organizadores do festival decidiram encadear as lanternas coloridas em uma linha pela praça principal.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>String up in a row – encadear em uma linha)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ele decidiu abandonar os procedimentos obsoletos e implementar um fluxo de trabalho mais eficiente.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ditch – abandonar, largar, deixar para trás)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Após anos perseguindo ambições vazias, ela finalmente decidiu abandonar seu antigo estilo de vida e buscar aquilo que realmente a realizava.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ditch – abandonar, largar, deixar para trás)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ele decidiu abandonar seus sapatos velhos.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ditch – abandonar, largar, deixar para trás)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lidar com vários fornecedores ao mesmo tempo pode ser uma verdadeira complicação, exigindo coordenação e acompanhamento cuidadosos.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hassle – complicação, problema, incômodo. follow-up - acompanhamento )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A equipe de TI conseguiu colocar um novo servidor virtual em funcionamento em menos de uma hora para lidar com o aumento inesperado de tráfego.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spin up – iniciar, colocar em funcionamento rapidamente)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Precisamos iniciar um novo servidor para o projeto. .(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spin up – iniciar, colocar em funcionamento rapidamente)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ele decidiu adiar a reunião, ou seja, queria mais tempo para reunir todos os dados necessários.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i.e. – ou seja, isto é (explicação))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Várias linguagens de programação, por exemplo, Python, Java e C++, são comumente usadas no desenvolvimento de software.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e.g. – por exemplo (dá exemplos))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A mercadoria da banda, incluindo camisetas e pôsteres, esgotou em poucas horas após o show.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Merchandise – mercadoria, produtos à venda)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O técnico ajustou cuidadosamente a mesa de som para garantir que cada instrumento estivesse perfeitamente equilibrado.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Soundboard – mesa de som)</t>
+    </r>
+  </si>
+  <si>
+    <t>O DJ usou luzes estroboscópicas para criar uma atmosfera dinâmica, aumentando a energia na pista de dança.</t>
+  </si>
+  <si>
+    <r>
+      <t>O público explodiu em aplausos, pedindo um bis após a performance impressionante da cantora.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>encore – bis)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +482,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,34 +815,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Frente</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Verso</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
